--- a/data/trans_orig/P19-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P19-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>111014</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>93741</v>
+        <v>93634</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>131709</v>
+        <v>131595</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1900470775417721</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1604768063655256</v>
+        <v>0.1602929728738866</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2254738622579898</v>
+        <v>0.2252796004584257</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>237</v>
@@ -765,19 +765,19 @@
         <v>247097</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>221884</v>
+        <v>221696</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>276587</v>
+        <v>276684</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2681736546371588</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2408098447753484</v>
+        <v>0.2406058543841539</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3001785140114859</v>
+        <v>0.3002839017725346</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>350</v>
@@ -786,19 +786,19 @@
         <v>358112</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>326440</v>
+        <v>324596</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>391235</v>
+        <v>391679</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2378611582744394</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2168243641525582</v>
+        <v>0.2155994890256321</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2598621495430558</v>
+        <v>0.2601566684601529</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>473127</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>452432</v>
+        <v>452546</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>490400</v>
+        <v>490507</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8099529224582279</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7745261377420102</v>
+        <v>0.7747203995415745</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8395231936344747</v>
+        <v>0.8397070271261134</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>647</v>
@@ -836,19 +836,19 @@
         <v>674311</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>644821</v>
+        <v>644724</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>699524</v>
+        <v>699712</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7318263453628412</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.699821485988514</v>
+        <v>0.6997160982274655</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7591901552246516</v>
+        <v>0.7593941456158462</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1108</v>
@@ -857,19 +857,19 @@
         <v>1147438</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1114315</v>
+        <v>1113871</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1179110</v>
+        <v>1180954</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7621388417255606</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7401378504569438</v>
+        <v>0.739843331539847</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7831756358474417</v>
+        <v>0.7844005109743679</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>241936</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>214818</v>
+        <v>215892</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>272095</v>
+        <v>269185</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2244528056564315</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1992943386216078</v>
+        <v>0.2002909974946108</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2524324648238281</v>
+        <v>0.249732124354138</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>297</v>
@@ -982,19 +982,19 @@
         <v>308046</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>278896</v>
+        <v>278479</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>338741</v>
+        <v>337872</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2912858572094479</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2637217535899246</v>
+        <v>0.2633272629863574</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.320310637569732</v>
+        <v>0.3194896800788009</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>533</v>
@@ -1003,19 +1003,19 @@
         <v>549982</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>505796</v>
+        <v>510891</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>591661</v>
+        <v>592234</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2575507880324863</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2368588028978779</v>
+        <v>0.2392448034596041</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2770687156352757</v>
+        <v>0.2773370877790964</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>835958</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>805799</v>
+        <v>808709</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>863076</v>
+        <v>862002</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7755471943435686</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.747567535176172</v>
+        <v>0.7502678756458623</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8007056613783923</v>
+        <v>0.7997090025053892</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>731</v>
@@ -1053,19 +1053,19 @@
         <v>749492</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>718797</v>
+        <v>719666</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>778642</v>
+        <v>779059</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7087141427905521</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.679689362430268</v>
+        <v>0.680510319921199</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7362782464100753</v>
+        <v>0.7366727370136426</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1550</v>
@@ -1074,19 +1074,19 @@
         <v>1585450</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1543771</v>
+        <v>1543198</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1629636</v>
+        <v>1624541</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7424492119675137</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7229312843647242</v>
+        <v>0.7226629122209036</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7631411971021221</v>
+        <v>0.7607551965403961</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>314107</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>282219</v>
+        <v>283220</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>343071</v>
+        <v>348362</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2802823391814488</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2518278506350512</v>
+        <v>0.2527208136942778</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.306126707068493</v>
+        <v>0.3108479822351437</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>348</v>
@@ -1199,19 +1199,19 @@
         <v>348193</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>319052</v>
+        <v>318554</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>377246</v>
+        <v>380877</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3503160660765366</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3209970755992045</v>
+        <v>0.3204965626811137</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3795460351588562</v>
+        <v>0.3831989207352449</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>654</v>
@@ -1220,19 +1220,19 @@
         <v>662301</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>620252</v>
+        <v>621678</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>710108</v>
+        <v>705704</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3132004213680088</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2933157838101426</v>
+        <v>0.2939899814351587</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3358084716168463</v>
+        <v>0.3337259172540092</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>806575</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>777611</v>
+        <v>772320</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>838463</v>
+        <v>837462</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7197176608185512</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.693873292931507</v>
+        <v>0.6891520177648564</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7481721493649491</v>
+        <v>0.7472791863057222</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>634</v>
@@ -1270,19 +1270,19 @@
         <v>645747</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>616694</v>
+        <v>613063</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>674888</v>
+        <v>675386</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6496839339234634</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6204539648411438</v>
+        <v>0.6168010792647551</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6790029244007955</v>
+        <v>0.6795034373188863</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1430</v>
@@ -1291,19 +1291,19 @@
         <v>1452321</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1404514</v>
+        <v>1408918</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1494370</v>
+        <v>1492944</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6867995786319911</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6641915283831539</v>
+        <v>0.6662740827459906</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7066842161898574</v>
+        <v>0.7060100185648412</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>135938</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>115957</v>
+        <v>116688</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>155318</v>
+        <v>154967</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3039755612574921</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.259295622696384</v>
+        <v>0.2609313221109658</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3473132033281289</v>
+        <v>0.3465281943659754</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>139</v>
@@ -1416,19 +1416,19 @@
         <v>139568</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>122194</v>
+        <v>121478</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>158965</v>
+        <v>156553</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4091012649466967</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3581734421982797</v>
+        <v>0.3560741920966335</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.465956245088359</v>
+        <v>0.4588866317959057</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>274</v>
@@ -1437,19 +1437,19 @@
         <v>275506</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>249873</v>
+        <v>249117</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>303824</v>
+        <v>301210</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3494682176820677</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3169538236581249</v>
+        <v>0.3159950837167163</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3853887700754579</v>
+        <v>0.382072126252378</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>311262</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>291882</v>
+        <v>292233</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>331243</v>
+        <v>330512</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6960244387425079</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.652686796671871</v>
+        <v>0.6534718056340246</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7407043773036159</v>
+        <v>0.7390686778890345</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>200</v>
@@ -1487,19 +1487,19 @@
         <v>201590</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>182193</v>
+        <v>184605</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>218964</v>
+        <v>219680</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5908987350533033</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.534043754911641</v>
+        <v>0.5411133682040942</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6418265578017202</v>
+        <v>0.6439258079033665</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>501</v>
@@ -1508,19 +1508,19 @@
         <v>512852</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>484534</v>
+        <v>487148</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>538485</v>
+        <v>539241</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6505317823179323</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6146112299245422</v>
+        <v>0.617927873747622</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6830461763418751</v>
+        <v>0.6840049162832837</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>802996</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>755845</v>
+        <v>754703</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>855436</v>
+        <v>851919</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2486119097213368</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.234013716187687</v>
+        <v>0.2336600691715654</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2648477084303392</v>
+        <v>0.263758847096128</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1021</v>
@@ -1633,19 +1633,19 @@
         <v>1042905</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>987099</v>
+        <v>987478</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1097174</v>
+        <v>1097218</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3146924197409985</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2978533978697743</v>
+        <v>0.2979675953606339</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3310681522028313</v>
+        <v>0.3310813933764198</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1811</v>
@@ -1654,19 +1654,19 @@
         <v>1845900</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1765996</v>
+        <v>1769057</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1915971</v>
+        <v>1916248</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2820769178525391</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2698665294557756</v>
+        <v>0.2703342912580438</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2927845331551588</v>
+        <v>0.2928269605756624</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>2426921</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2374481</v>
+        <v>2377998</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2474072</v>
+        <v>2475214</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7513880902786633</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.735152291569661</v>
+        <v>0.7362411529038719</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.765986283812313</v>
+        <v>0.7663399308284347</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2212</v>
@@ -1704,19 +1704,19 @@
         <v>2271139</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2216870</v>
+        <v>2216826</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2326945</v>
+        <v>2326566</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6853075802590015</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6689318477971686</v>
+        <v>0.6689186066235803</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7021466021302257</v>
+        <v>0.7020324046393663</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4589</v>
@@ -1725,19 +1725,19 @@
         <v>4698061</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4627990</v>
+        <v>4627713</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4777965</v>
+        <v>4774904</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7179230821474608</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7072154668448412</v>
+        <v>0.7071730394243376</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7301334705442244</v>
+        <v>0.7296657087419562</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>216150</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>191136</v>
+        <v>192636</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>244072</v>
+        <v>243460</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2073241156265095</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1833317759140133</v>
+        <v>0.184770591480816</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2341060125619379</v>
+        <v>0.2335186401367366</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>265</v>
@@ -2090,19 +2090,19 @@
         <v>285046</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>254845</v>
+        <v>256203</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>316508</v>
+        <v>315706</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2545219100893795</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2275543939169846</v>
+        <v>0.2287672713988504</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2826145977506253</v>
+        <v>0.2818981370889912</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>472</v>
@@ -2111,19 +2111,19 @@
         <v>501197</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>456686</v>
+        <v>463442</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>539972</v>
+        <v>543075</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2317671932873501</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2111844279443749</v>
+        <v>0.2143086340645708</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2496980314804335</v>
+        <v>0.251133121133669</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>826421</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>798499</v>
+        <v>799111</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>851435</v>
+        <v>849935</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7926758843734905</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7658939874380621</v>
+        <v>0.7664813598632634</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8166682240859867</v>
+        <v>0.8152294085191839</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>766</v>
@@ -2161,19 +2161,19 @@
         <v>834882</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>803420</v>
+        <v>804222</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>865083</v>
+        <v>863725</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7454780899106206</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7173854022493746</v>
+        <v>0.7181018629110089</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7724456060830154</v>
+        <v>0.7712327286011496</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1536</v>
@@ -2182,19 +2182,19 @@
         <v>1661303</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1622528</v>
+        <v>1619425</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1705814</v>
+        <v>1699058</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7682328067126499</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7503019685195664</v>
+        <v>0.748866878866331</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7888155720556249</v>
+        <v>0.7856913659354291</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>212944</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>187296</v>
+        <v>185632</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>240732</v>
+        <v>238445</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2181974031010765</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1919168556863297</v>
+        <v>0.1902119361244127</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2466711583085694</v>
+        <v>0.2443273306792305</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>306</v>
@@ -2307,19 +2307,19 @@
         <v>333915</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>304504</v>
+        <v>302181</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>368017</v>
+        <v>367294</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3054195021174231</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2785185259709111</v>
+        <v>0.2763936807544259</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3366113655577439</v>
+        <v>0.3359506775891095</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>513</v>
@@ -2328,19 +2328,19 @@
         <v>546858</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>503326</v>
+        <v>506041</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>583064</v>
+        <v>589672</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2642822553380051</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2432443864077015</v>
+        <v>0.2445562114043154</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2817792995053909</v>
+        <v>0.2849729244065438</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>762979</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>735191</v>
+        <v>737478</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>788627</v>
+        <v>790291</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7818025968989235</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7533288416914303</v>
+        <v>0.7556726693207695</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8080831443136702</v>
+        <v>0.8097880638755873</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>713</v>
@@ -2378,19 +2378,19 @@
         <v>759383</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>725281</v>
+        <v>726004</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>788794</v>
+        <v>791117</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6945804978825769</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6633886344422559</v>
+        <v>0.6640493224108904</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7214814740290888</v>
+        <v>0.7236063192455739</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1429</v>
@@ -2399,19 +2399,19 @@
         <v>1522363</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1486157</v>
+        <v>1479549</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1565895</v>
+        <v>1563180</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7357177446619949</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.718220700494609</v>
+        <v>0.7150270755934562</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7567556135922985</v>
+        <v>0.7554437885956845</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>248230</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>219391</v>
+        <v>219614</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>274547</v>
+        <v>274740</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2804495685149196</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2478672111128188</v>
+        <v>0.2481191337328367</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3101821154633507</v>
+        <v>0.31040051799886</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>284</v>
@@ -2524,19 +2524,19 @@
         <v>305092</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>275202</v>
+        <v>274593</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>332948</v>
+        <v>333042</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3483592187358497</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3142307193407146</v>
+        <v>0.3135356718486665</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.380165708374904</v>
+        <v>0.3802733545203181</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>515</v>
@@ -2545,19 +2545,19 @@
         <v>553322</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>511911</v>
+        <v>515722</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>593678</v>
+        <v>594440</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3142246933978305</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2907080503823293</v>
+        <v>0.2928725118197259</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.337142478213635</v>
+        <v>0.3375752341283947</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>636885</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>610568</v>
+        <v>610375</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>665724</v>
+        <v>665501</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7195504314850804</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6898178845366494</v>
+        <v>0.68959948200114</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7521327888871812</v>
+        <v>0.7518808662671634</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>537</v>
@@ -2595,19 +2595,19 @@
         <v>570704</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>542848</v>
+        <v>542754</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>600594</v>
+        <v>601203</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6516407812641503</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.619834291625096</v>
+        <v>0.6197266454796818</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6857692806592854</v>
+        <v>0.6864643281513335</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1136</v>
@@ -2616,19 +2616,19 @@
         <v>1207589</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1167233</v>
+        <v>1166471</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1249000</v>
+        <v>1245189</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6857753066021695</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.662857521786365</v>
+        <v>0.6624247658716055</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7092919496176707</v>
+        <v>0.7071274881802742</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>165333</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>142972</v>
+        <v>142473</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>187430</v>
+        <v>187337</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.328679527807865</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2842262969949715</v>
+        <v>0.2832344959420001</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3726063226892376</v>
+        <v>0.3724218420471677</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>137</v>
@@ -2741,19 +2741,19 @@
         <v>149674</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>130489</v>
+        <v>130051</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>170262</v>
+        <v>173635</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3305983722278711</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.288223260664655</v>
+        <v>0.2872559987686434</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3760745533684483</v>
+        <v>0.383523182769321</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>287</v>
@@ -2762,19 +2762,19 @@
         <v>315007</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>286046</v>
+        <v>281843</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>348538</v>
+        <v>346199</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3295884701609708</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2992869728836223</v>
+        <v>0.2948894282392882</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3646715798356713</v>
+        <v>0.362224133820041</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>337690</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>315593</v>
+        <v>315686</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>360051</v>
+        <v>360550</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6713204721921351</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6273936773107625</v>
+        <v>0.6275781579528322</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7157737030050284</v>
+        <v>0.7167655040579999</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>275</v>
@@ -2812,19 +2812,19 @@
         <v>303062</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>282474</v>
+        <v>279101</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>322247</v>
+        <v>322685</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6694016277721289</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6239254466315517</v>
+        <v>0.6164768172306789</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.711776739335345</v>
+        <v>0.7127440012313565</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>586</v>
@@ -2833,19 +2833,19 @@
         <v>640751</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>607220</v>
+        <v>609559</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>669712</v>
+        <v>673915</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6704115298390292</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6353284201643287</v>
+        <v>0.6377758661799591</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7007130271163777</v>
+        <v>0.7051105717607121</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>842657</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>791906</v>
+        <v>792504</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>898251</v>
+        <v>893224</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2473579214458114</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2324600789385864</v>
+        <v>0.2326356378532513</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.263677103476941</v>
+        <v>0.2622016280873051</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>992</v>
@@ -2958,19 +2958,19 @@
         <v>1073726</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1017910</v>
+        <v>1014282</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1135293</v>
+        <v>1131138</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3031619052570903</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2874023576169537</v>
+        <v>0.2863780254117542</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3205450135586665</v>
+        <v>0.319371920976015</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1787</v>
@@ -2979,19 +2979,19 @@
         <v>1916384</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1845672</v>
+        <v>1840313</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1994438</v>
+        <v>1993761</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2758025242886136</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2656259179120076</v>
+        <v>0.2648545322871572</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2870360059725605</v>
+        <v>0.2869385185751793</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>2563975</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2508381</v>
+        <v>2513408</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2614726</v>
+        <v>2614128</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7526420785541886</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7363228965230596</v>
+        <v>0.737798371912695</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7675399210614136</v>
+        <v>0.7673643621467486</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2291</v>
@@ -3029,19 +3029,19 @@
         <v>2468032</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2406465</v>
+        <v>2410620</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2523848</v>
+        <v>2527476</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6968380947429097</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6794549864413335</v>
+        <v>0.680628079023985</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7125976423830463</v>
+        <v>0.7136219745882458</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4687</v>
@@ -3050,19 +3050,19 @@
         <v>5032006</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4953952</v>
+        <v>4954629</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5102718</v>
+        <v>5108077</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7241974757113864</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7129639940274396</v>
+        <v>0.7130614814248206</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7343740820879924</v>
+        <v>0.7351454677128427</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>264778</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>238268</v>
+        <v>236705</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>293629</v>
+        <v>295784</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2347327540310565</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2112310468194014</v>
+        <v>0.2098453219935263</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2603096652468159</v>
+        <v>0.2622207491787478</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>379</v>
@@ -3415,19 +3415,19 @@
         <v>393571</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>359240</v>
+        <v>363716</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>428883</v>
+        <v>426437</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3124670750417914</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2852107321328425</v>
+        <v>0.2887644590958093</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3405015760251593</v>
+        <v>0.338560170153796</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>625</v>
@@ -3436,19 +3436,19 @@
         <v>658349</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>612998</v>
+        <v>615568</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>703318</v>
+        <v>702755</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2757416431212412</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2567468470897651</v>
+        <v>0.2578232205474311</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.294576290279327</v>
+        <v>0.2943406929513083</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>863219</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>834368</v>
+        <v>832213</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>889729</v>
+        <v>891292</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7652672459689436</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7396903347531841</v>
+        <v>0.7377792508212522</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7887689531805985</v>
+        <v>0.7901546780064737</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>809</v>
@@ -3486,19 +3486,19 @@
         <v>865990</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>830678</v>
+        <v>833124</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>900321</v>
+        <v>895845</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6875329249582086</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6594984239748407</v>
+        <v>0.6614398298462039</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7147892678671575</v>
+        <v>0.7112355409041903</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1629</v>
@@ -3507,19 +3507,19 @@
         <v>1729209</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1684240</v>
+        <v>1684803</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1774560</v>
+        <v>1771990</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7242583568787588</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7054237097206724</v>
+        <v>0.7056593070486917</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7432531529102345</v>
+        <v>0.742176779452569</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>279388</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>248987</v>
+        <v>250909</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>308002</v>
+        <v>309071</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3074170316810871</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2739656652782756</v>
+        <v>0.2760804885594971</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3389008512378258</v>
+        <v>0.3400772310305672</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>333</v>
@@ -3632,19 +3632,19 @@
         <v>352810</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>324860</v>
+        <v>323368</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>383324</v>
+        <v>384087</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3505403745044566</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3227703680169995</v>
+        <v>0.3212879154255819</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.380857663506522</v>
+        <v>0.381616056737067</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>599</v>
@@ -3653,19 +3653,19 @@
         <v>632198</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>593295</v>
+        <v>592445</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>677969</v>
+        <v>673186</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3300780130149772</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3097660628649634</v>
+        <v>0.3093221917120327</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3539751165348501</v>
+        <v>0.3514783094036553</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>629437</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>600823</v>
+        <v>599754</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>659838</v>
+        <v>657916</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6925829683189129</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.661099148762174</v>
+        <v>0.6599227689694325</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7260343347217243</v>
+        <v>0.7239195114405026</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>618</v>
@@ -3703,19 +3703,19 @@
         <v>653665</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>623151</v>
+        <v>622388</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>681615</v>
+        <v>683107</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6494596254955434</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6191423364934778</v>
+        <v>0.6183839432629328</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6772296319830001</v>
+        <v>0.678712084574418</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1233</v>
@@ -3724,19 +3724,19 @@
         <v>1283102</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1237331</v>
+        <v>1242114</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1322005</v>
+        <v>1322855</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6699219869850228</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6460248834651499</v>
+        <v>0.6485216905963448</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6902339371350366</v>
+        <v>0.6906778082879672</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>269876</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>244545</v>
+        <v>242794</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>298377</v>
+        <v>297952</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3276156433848652</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2968647988286707</v>
+        <v>0.2947388701903007</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3622136415123655</v>
+        <v>0.3616985738708684</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>268</v>
@@ -3849,19 +3849,19 @@
         <v>277397</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>251208</v>
+        <v>251370</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>305140</v>
+        <v>303406</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3597607027821664</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.325796092017315</v>
+        <v>0.3260061757088191</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3957408293457414</v>
+        <v>0.3934929098440219</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>518</v>
@@ -3870,19 +3870,19 @@
         <v>547273</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>507435</v>
+        <v>508700</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>585591</v>
+        <v>584255</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3431570579896683</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3181773177970115</v>
+        <v>0.3189704421956893</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3671834941711276</v>
+        <v>0.3663455956875764</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>553883</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>525382</v>
+        <v>525807</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>579214</v>
+        <v>580965</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6723843566151348</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6377863584876345</v>
+        <v>0.6383014261291317</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7031352011713293</v>
+        <v>0.7052611298096993</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>460</v>
@@ -3920,19 +3920,19 @@
         <v>493662</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>465919</v>
+        <v>467653</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>519851</v>
+        <v>519689</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6402392972178336</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6042591706542586</v>
+        <v>0.6065070901559793</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.674203907982685</v>
+        <v>0.673993824291181</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>997</v>
@@ -3941,19 +3941,19 @@
         <v>1047545</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1009227</v>
+        <v>1010563</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1087383</v>
+        <v>1086118</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6568429420103317</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6328165058288721</v>
+        <v>0.6336544043124237</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6818226822029883</v>
+        <v>0.6810295578043106</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>161817</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>140847</v>
+        <v>140484</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>186200</v>
+        <v>182548</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3193547601564434</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2779680186546419</v>
+        <v>0.277252683204002</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.367474204006749</v>
+        <v>0.3602681712432537</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>182</v>
@@ -4066,19 +4066,19 @@
         <v>195153</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>173652</v>
+        <v>172717</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>217283</v>
+        <v>217924</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3985173782636972</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3546113527946801</v>
+        <v>0.3527011295953802</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4437087148099874</v>
+        <v>0.4450168996717224</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>331</v>
@@ -4087,19 +4087,19 @@
         <v>356970</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>327888</v>
+        <v>327441</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>389143</v>
+        <v>390765</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.358260621726707</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3290737363498235</v>
+        <v>0.3286243336133893</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3905494270422245</v>
+        <v>0.3921778586229646</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>344884</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>320501</v>
+        <v>324153</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>365854</v>
+        <v>366217</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6806452398435566</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6325257959932511</v>
+        <v>0.6397318287567464</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7220319813453581</v>
+        <v>0.722747316795998</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>273</v>
@@ -4137,19 +4137,19 @@
         <v>294545</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>272415</v>
+        <v>271774</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>316046</v>
+        <v>316981</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6014826217363028</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5562912851900125</v>
+        <v>0.5549831003282775</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6453886472053195</v>
+        <v>0.6472988704046193</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>595</v>
@@ -4158,19 +4158,19 @@
         <v>639428</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>607255</v>
+        <v>605633</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>668510</v>
+        <v>668957</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.641739378273293</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6094505729577755</v>
+        <v>0.6078221413770354</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6709262636501765</v>
+        <v>0.6713756663866107</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>975860</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>926205</v>
+        <v>926574</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1030572</v>
+        <v>1033045</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.289806387851919</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2750600467052824</v>
+        <v>0.2751698212419627</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3060544588654059</v>
+        <v>0.3067891083331356</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1162</v>
@@ -4283,19 +4283,19 @@
         <v>1218931</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1158618</v>
+        <v>1161466</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1271797</v>
+        <v>1273764</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3456203237353844</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.328519013719567</v>
+        <v>0.3293265661129733</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3606101049136508</v>
+        <v>0.3611679371875892</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2073</v>
@@ -4304,19 +4304,19 @@
         <v>2194791</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2110199</v>
+        <v>2119449</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2278949</v>
+        <v>2286447</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.318359047004671</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3060887175761005</v>
+        <v>0.3074304473257255</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3305663051836807</v>
+        <v>0.3316538931642329</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>2391422</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2336710</v>
+        <v>2334237</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2441077</v>
+        <v>2440708</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.710193612148081</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6939455411345939</v>
+        <v>0.6932108916668644</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7249399532947176</v>
+        <v>0.7248301787580373</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2160</v>
@@ -4354,19 +4354,19 @@
         <v>2307861</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2254995</v>
+        <v>2253028</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2368174</v>
+        <v>2365326</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6543796762646157</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6393898950863492</v>
+        <v>0.6388320628124109</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6714809862804331</v>
+        <v>0.6706734338870266</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4454</v>
@@ -4375,19 +4375,19 @@
         <v>4699284</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4615126</v>
+        <v>4607628</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4783876</v>
+        <v>4774626</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.681640952995329</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6694336948163193</v>
+        <v>0.6683461068357673</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6939112824238995</v>
+        <v>0.692569552674275</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>75541</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>58393</v>
+        <v>59845</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>94675</v>
+        <v>95033</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.1538069850723876</v>
+        <v>0.1538069850723875</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1188927326792396</v>
+        <v>0.1218488950176096</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1927640750698721</v>
+        <v>0.1934939672787655</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>180</v>
@@ -4740,19 +4740,19 @@
         <v>137033</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>119945</v>
+        <v>116872</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>156104</v>
+        <v>154503</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.2234531928166117</v>
+        <v>0.2234531928166116</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1955882973787201</v>
+        <v>0.1905764577255902</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2545501712807227</v>
+        <v>0.2519395288390147</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>247</v>
@@ -4761,19 +4761,19 @@
         <v>212574</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>187918</v>
+        <v>184209</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>239418</v>
+        <v>239183</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1924803859277763</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1701542765037249</v>
+        <v>0.1667963976651124</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2167864078373691</v>
+        <v>0.2165737672878243</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>415602</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>396468</v>
+        <v>396110</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>432750</v>
+        <v>431298</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8461930149276125</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.807235924930128</v>
+        <v>0.8065060327212344</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8811072673207604</v>
+        <v>0.8781511049823905</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>665</v>
@@ -4811,19 +4811,19 @@
         <v>476220</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>457149</v>
+        <v>458750</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>493308</v>
+        <v>496381</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.7765468071833884</v>
+        <v>0.7765468071833883</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7454498287192772</v>
+        <v>0.7480604711609854</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8044117026212798</v>
+        <v>0.8094235422744098</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1047</v>
@@ -4832,19 +4832,19 @@
         <v>891821</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>864977</v>
+        <v>865212</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>916477</v>
+        <v>920186</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8075196140722238</v>
+        <v>0.8075196140722236</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7832135921626309</v>
+        <v>0.7834262327121757</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8298457234962749</v>
+        <v>0.8332036023348877</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>183861</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>158363</v>
+        <v>156307</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>213421</v>
+        <v>210978</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1923320565934624</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1656593650662496</v>
+        <v>0.1635087878214251</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2232549151783358</v>
+        <v>0.2206986545631877</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>394</v>
@@ -4957,19 +4957,19 @@
         <v>286087</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>262334</v>
+        <v>262896</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>312884</v>
+        <v>313051</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2584382171807446</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2369806824315645</v>
+        <v>0.2374881172375056</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2826451292397958</v>
+        <v>0.2827960387264429</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>553</v>
@@ -4978,19 +4978,19 @@
         <v>469948</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>433001</v>
+        <v>434780</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>511075</v>
+        <v>510216</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2278049881941862</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2098952120317164</v>
+        <v>0.2107575304797475</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.247741255737926</v>
+        <v>0.2473248303075918</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>772093</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>742533</v>
+        <v>744976</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>797591</v>
+        <v>799647</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8076679434065376</v>
+        <v>0.8076679434065377</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7767450848216638</v>
+        <v>0.7793013454368122</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8343406349337504</v>
+        <v>0.8364912121785747</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1201</v>
@@ -5028,19 +5028,19 @@
         <v>820897</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>794100</v>
+        <v>793933</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>844650</v>
+        <v>844088</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.7415617828192556</v>
+        <v>0.7415617828192553</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.717354870760204</v>
+        <v>0.7172039612735571</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7630193175684354</v>
+        <v>0.7625118827624945</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1948</v>
@@ -5049,19 +5049,19 @@
         <v>1592990</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1551863</v>
+        <v>1552722</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1629937</v>
+        <v>1628158</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7721950118058137</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7522587442620741</v>
+        <v>0.7526751696924082</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7901047879682835</v>
+        <v>0.7892424695202526</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>314914</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>283743</v>
+        <v>281698</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>350722</v>
+        <v>351436</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.3028498910869985</v>
+        <v>0.3028498910869984</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2728726826980301</v>
+        <v>0.2709063694173557</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3372863996815715</v>
+        <v>0.3379732682335216</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>507</v>
@@ -5174,19 +5174,19 @@
         <v>368637</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>342202</v>
+        <v>342093</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>395694</v>
+        <v>397334</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3536728776906519</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3283109254549433</v>
+        <v>0.3282060673940835</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3796315212343607</v>
+        <v>0.381204306132972</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>793</v>
@@ -5195,19 +5195,19 @@
         <v>683551</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>637902</v>
+        <v>642510</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>722206</v>
+        <v>727018</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3282916131549127</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.306367519963598</v>
+        <v>0.308580663221303</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3468561882044645</v>
+        <v>0.3491676649987188</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>724921</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>689113</v>
+        <v>688399</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>756092</v>
+        <v>758137</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6971501089130016</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6627136003184287</v>
+        <v>0.6620267317664787</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7271273173019699</v>
+        <v>0.7290936305826446</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1003</v>
@@ -5245,19 +5245,19 @@
         <v>673675</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>646618</v>
+        <v>644978</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>700110</v>
+        <v>700219</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6463271223093483</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6203684787656392</v>
+        <v>0.6187956938670279</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6716890745450566</v>
+        <v>0.6717939326059165</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1740</v>
@@ -5266,19 +5266,19 @@
         <v>1398596</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1359941</v>
+        <v>1355129</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1444245</v>
+        <v>1439637</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6717083868450872</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6531438117955354</v>
+        <v>0.6508323350012811</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6936324800364018</v>
+        <v>0.6914193367786969</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>335708</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>302032</v>
+        <v>303411</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>365337</v>
+        <v>369262</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3455170995995895</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3108570697626283</v>
+        <v>0.3122771351708536</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3760121446343541</v>
+        <v>0.3800525509793328</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>480</v>
@@ -5391,19 +5391,19 @@
         <v>348272</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>320397</v>
+        <v>322738</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>374052</v>
+        <v>373060</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3862050447746952</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3552942654582555</v>
+        <v>0.3578907927552943</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4147930294904446</v>
+        <v>0.4136938176937823</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>792</v>
@@ -5412,19 +5412,19 @@
         <v>683979</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>645805</v>
+        <v>642820</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>730334</v>
+        <v>725755</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.36510275507435</v>
+        <v>0.3651027550743499</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3447259135837302</v>
+        <v>0.3431325174869598</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3898463655487871</v>
+        <v>0.3874023828132782</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>635901</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>606272</v>
+        <v>602347</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>669577</v>
+        <v>668198</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6544829004004106</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6239878553656462</v>
+        <v>0.619947449020667</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6891429302373719</v>
+        <v>0.6877228648291465</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>830</v>
@@ -5462,19 +5462,19 @@
         <v>553507</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>527727</v>
+        <v>528719</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>581382</v>
+        <v>579041</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.6137949552253049</v>
+        <v>0.6137949552253047</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5852069705095553</v>
+        <v>0.5863061823062178</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6447057345417446</v>
+        <v>0.6421092072447057</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1460</v>
@@ -5483,19 +5483,19 @@
         <v>1189409</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1143054</v>
+        <v>1147633</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1227583</v>
+        <v>1230568</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.6348972449256501</v>
+        <v>0.63489724492565</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6101536344512127</v>
+        <v>0.6125976171867218</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6552740864162697</v>
+        <v>0.6568674825130403</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>910023</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>857254</v>
+        <v>855209</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>964528</v>
+        <v>973137</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2631234729349187</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2478656672136507</v>
+        <v>0.2472745575765592</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2788828361489853</v>
+        <v>0.2813719941584378</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1561</v>
@@ -5608,19 +5608,19 @@
         <v>1140029</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1088065</v>
+        <v>1092674</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1187656</v>
+        <v>1195541</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3111155528989472</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2969344184993937</v>
+        <v>0.2981921187090427</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.324112977425043</v>
+        <v>0.3262647218002901</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2385</v>
@@ -5629,19 +5629,19 @@
         <v>2050053</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1972844</v>
+        <v>1975642</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2123707</v>
+        <v>2128969</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2878127819743355</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2769732131851882</v>
+        <v>0.2773659629947375</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2981532750784628</v>
+        <v>0.2988919739426349</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>2548518</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2494013</v>
+        <v>2485404</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2601287</v>
+        <v>2603332</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.7368765270650813</v>
+        <v>0.7368765270650811</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7211171638510144</v>
+        <v>0.7186280058415623</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.752134332786349</v>
+        <v>0.7527254424234407</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3699</v>
@@ -5679,19 +5679,19 @@
         <v>2524299</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2476672</v>
+        <v>2468787</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2576263</v>
+        <v>2571654</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.6888844471010528</v>
+        <v>0.6888844471010527</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6758870225749569</v>
+        <v>0.6737352781997098</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7030655815006062</v>
+        <v>0.7018078812909572</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6195</v>
@@ -5700,19 +5700,19 @@
         <v>5072817</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4999163</v>
+        <v>4993901</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5150026</v>
+        <v>5147228</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.7121872180256648</v>
+        <v>0.7121872180256645</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.701846724921538</v>
+        <v>0.7011080260573651</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7230267868148121</v>
+        <v>0.7226340370052625</v>
       </c>
     </row>
     <row r="18">
